--- a/teaching/traditional_assets/database/data/italy/italy_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_insurance_life.xlsx
@@ -591,124 +591,112 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0365</v>
+        <v>0.008835000000000001</v>
       </c>
       <c r="E2">
-        <v>0.143</v>
+        <v>-0.011</v>
       </c>
       <c r="F2">
-        <v>0.0579</v>
+        <v>0.0146</v>
       </c>
       <c r="G2">
-        <v>0.08460762586000288</v>
+        <v>0.08647998460354119</v>
       </c>
       <c r="H2">
-        <v>0.08460762586000288</v>
+        <v>0.08647998460354119</v>
       </c>
       <c r="I2">
-        <v>0.06884955137390056</v>
+        <v>0.06770592763664357</v>
       </c>
       <c r="J2">
-        <v>0.05448643793511849</v>
+        <v>0.0417163469679503</v>
       </c>
       <c r="K2">
-        <v>1684.6</v>
+        <v>1397.5</v>
       </c>
       <c r="L2">
-        <v>0.03897137410760967</v>
+        <v>0.03361961123941493</v>
       </c>
       <c r="M2">
-        <v>669.5</v>
+        <v>736.073</v>
       </c>
       <c r="N2">
-        <v>0.04150470841315008</v>
+        <v>0.05083657936902591</v>
       </c>
       <c r="O2">
-        <v>0.3974237207645732</v>
+        <v>0.526706976744186</v>
       </c>
       <c r="P2">
-        <v>625.9</v>
+        <v>707.3729999999999</v>
       </c>
       <c r="Q2">
-        <v>0.03880178789513165</v>
+        <v>0.04885442565887618</v>
       </c>
       <c r="R2">
-        <v>0.3715422058648937</v>
+        <v>0.5061703041144902</v>
       </c>
       <c r="S2">
-        <v>43.60000000000002</v>
+        <v>28.7</v>
       </c>
       <c r="T2">
-        <v>0.06512322628827487</v>
+        <v>0.03899069793349301</v>
       </c>
       <c r="U2">
-        <v>6208.7</v>
+        <v>7590.400000000001</v>
       </c>
       <c r="V2">
-        <v>0.3848996013812172</v>
-      </c>
-      <c r="W2">
-        <v>0.1236509914390966</v>
+        <v>0.5242278578927013</v>
       </c>
       <c r="X2">
-        <v>0.2779478523305464</v>
-      </c>
-      <c r="Y2">
-        <v>-0.1542968608914499</v>
+        <v>0.3034124936540563</v>
       </c>
       <c r="Z2">
-        <v>0.5234103812391787</v>
-      </c>
-      <c r="AA2">
-        <v>0.05992172315211539</v>
+        <v>0.412388316458032</v>
       </c>
       <c r="AB2">
-        <v>0.09278214239958496</v>
-      </c>
-      <c r="AC2">
-        <v>-0.03286041924746957</v>
+        <v>0.08060250072307074</v>
       </c>
       <c r="AD2">
-        <v>92462.10000000001</v>
+        <v>111568.8</v>
       </c>
       <c r="AE2">
-        <v>755.3399129047525</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>93217.43991290475</v>
+        <v>111568.8</v>
       </c>
       <c r="AG2">
-        <v>87008.73991290476</v>
+        <v>103978.4</v>
       </c>
       <c r="AH2">
-        <v>0.8524830873863239</v>
+        <v>0.8851294744859102</v>
       </c>
       <c r="AI2">
-        <v>0.8710132435469795</v>
+        <v>0.8807601917689047</v>
       </c>
       <c r="AJ2">
-        <v>0.843602990149826</v>
+        <v>0.8777689232265384</v>
       </c>
       <c r="AK2">
-        <v>0.8630694370602284</v>
+        <v>0.8731597903645276</v>
       </c>
       <c r="AL2">
-        <v>216.2</v>
+        <v>357.5</v>
       </c>
       <c r="AM2">
-        <v>97.29999999999998</v>
+        <v>230.7</v>
       </c>
       <c r="AN2">
-        <v>24.69409502443715</v>
+        <v>31.69478139825573</v>
       </c>
       <c r="AO2">
-        <v>13.38945420906568</v>
+        <v>7.872447552447553</v>
       </c>
       <c r="AP2">
-        <v>23.23765187429019</v>
+        <v>29.53847902048238</v>
       </c>
       <c r="AQ2">
-        <v>29.75128468653649</v>
+        <v>12.19939315127872</v>
       </c>
     </row>
     <row r="3">
@@ -728,118 +716,106 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.0246</v>
       </c>
       <c r="E3">
-        <v>0.117</v>
+        <v>-0.204</v>
       </c>
       <c r="G3">
-        <v>0.05946141801570972</v>
+        <v>0.05485156149595168</v>
       </c>
       <c r="H3">
-        <v>0.05946141801570972</v>
+        <v>0.05485156149595168</v>
       </c>
       <c r="I3">
-        <v>0.05161949868654321</v>
+        <v>0.05097031229919034</v>
       </c>
       <c r="J3">
-        <v>0.03266206994167654</v>
+        <v>0.02548515614959517</v>
       </c>
       <c r="K3">
-        <v>129.7</v>
+        <v>38.9</v>
       </c>
       <c r="L3">
-        <v>0.01678377783816659</v>
+        <v>0.004999357409073384</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>29.173</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02352851036373901</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.7499485861182519</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.473</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.0003814823776110976</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.01215938303341902</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>28.7</v>
+      </c>
+      <c r="T3">
+        <v>0.983786377815103</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>691.6</v>
       </c>
       <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.06397356219788891</v>
+        <v>0.5577869182998628</v>
       </c>
       <c r="X3">
-        <v>0.1216243749317641</v>
-      </c>
-      <c r="Y3">
-        <v>-0.05765081273387519</v>
-      </c>
-      <c r="Z3">
-        <v>2.729285865649502</v>
-      </c>
-      <c r="AA3">
-        <v>0.08914412583467322</v>
+        <v>0.1114626786129166</v>
       </c>
       <c r="AB3">
-        <v>0.09089240264829643</v>
-      </c>
-      <c r="AC3">
-        <v>-0.001748276813623204</v>
+        <v>0.07715980228153028</v>
       </c>
       <c r="AD3">
-        <v>755.6</v>
+        <v>890.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>755.6</v>
+        <v>890.1</v>
       </c>
       <c r="AG3">
-        <v>755.6</v>
+        <v>198.5</v>
       </c>
       <c r="AH3">
-        <v>0.3564991743335693</v>
+        <v>0.417887323943662</v>
       </c>
       <c r="AI3">
-        <v>0.2291571892154187</v>
+        <v>0.2406391089242748</v>
       </c>
       <c r="AJ3">
-        <v>0.3564991743335693</v>
+        <v>0.1380005561735261</v>
       </c>
       <c r="AK3">
-        <v>0.2291571892154187</v>
+        <v>0.06600605194027866</v>
       </c>
       <c r="AL3">
-        <v>161.7</v>
+        <v>162.6</v>
       </c>
       <c r="AM3">
-        <v>161.7</v>
+        <v>162.6</v>
       </c>
       <c r="AN3">
-        <v>1.78713339640492</v>
+        <v>1.72</v>
       </c>
       <c r="AO3">
-        <v>2.46691403834261</v>
+        <v>2.439114391143911</v>
       </c>
       <c r="AP3">
-        <v>1.78713339640492</v>
+        <v>0.3835748792270531</v>
       </c>
       <c r="AQ3">
-        <v>2.46691403834261</v>
+        <v>2.439114391143911</v>
       </c>
     </row>
     <row r="4">
@@ -859,124 +835,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.023</v>
+        <v>-0.00693</v>
       </c>
       <c r="E4">
-        <v>0.169</v>
+        <v>0.182</v>
       </c>
       <c r="F4">
-        <v>0.0579</v>
+        <v>0.0146</v>
       </c>
       <c r="G4">
-        <v>0.09008166450228035</v>
+        <v>0.09376387367922574</v>
       </c>
       <c r="H4">
-        <v>0.09008166450228035</v>
+        <v>0.09376387367922574</v>
       </c>
       <c r="I4">
-        <v>0.07260033458555193</v>
+        <v>0.07156006748157576</v>
       </c>
       <c r="J4">
-        <v>0.06897187037763469</v>
+        <v>0.05240204154609434</v>
       </c>
       <c r="K4">
-        <v>1554.9</v>
+        <v>1358.6</v>
       </c>
       <c r="L4">
-        <v>0.04380135722515346</v>
+        <v>0.04021073193831947</v>
       </c>
       <c r="M4">
-        <v>669.5</v>
+        <v>706.9</v>
       </c>
       <c r="N4">
-        <v>0.04533819107728147</v>
+        <v>0.05339406161957203</v>
       </c>
       <c r="O4">
-        <v>0.4305743134606727</v>
+        <v>0.5203150301781245</v>
       </c>
       <c r="P4">
-        <v>625.9</v>
+        <v>706.9</v>
       </c>
       <c r="Q4">
-        <v>0.04238562180025462</v>
+        <v>0.05339406161957203</v>
       </c>
       <c r="R4">
-        <v>0.4025339250112547</v>
+        <v>0.5203150301781245</v>
       </c>
       <c r="S4">
-        <v>43.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.06512322628827487</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>6208.7</v>
+        <v>6898.8</v>
       </c>
       <c r="V4">
-        <v>0.4204499282173524</v>
+        <v>0.5210849516213093</v>
       </c>
       <c r="W4">
-        <v>0.1833284206803042</v>
+        <v>0.1206282685324123</v>
       </c>
       <c r="X4">
-        <v>0.4342713297293287</v>
+        <v>0.4953623086951959</v>
       </c>
       <c r="Y4">
-        <v>-0.2509429090490245</v>
+        <v>-0.3747340401627837</v>
       </c>
       <c r="Z4">
-        <v>0.4450991440636984</v>
+        <v>0.3351944776791649</v>
       </c>
       <c r="AA4">
-        <v>0.03069932046955755</v>
+        <v>0.01756487494536499</v>
       </c>
       <c r="AB4">
-        <v>0.09467188215087348</v>
+        <v>0.08404519916461117</v>
       </c>
       <c r="AC4">
-        <v>-0.06397256168131593</v>
+        <v>-0.06648032421924618</v>
       </c>
       <c r="AD4">
-        <v>91706.5</v>
+        <v>110678.7</v>
       </c>
       <c r="AE4">
-        <v>755.3399129047525</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>92461.83991290475</v>
+        <v>110678.7</v>
       </c>
       <c r="AG4">
-        <v>86253.13991290475</v>
+        <v>103779.9</v>
       </c>
       <c r="AH4">
-        <v>0.8622867919243015</v>
+        <v>0.893160799883794</v>
       </c>
       <c r="AI4">
-        <v>0.8914172093753605</v>
+        <v>0.9000141492863556</v>
       </c>
       <c r="AJ4">
-        <v>0.8538229183987702</v>
+        <v>0.8868621559538947</v>
       </c>
       <c r="AK4">
-        <v>0.8845038917773855</v>
+        <v>0.8940716222875437</v>
       </c>
       <c r="AL4">
-        <v>54.5</v>
+        <v>194.9</v>
       </c>
       <c r="AM4">
-        <v>-64.40000000000001</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="AN4">
-        <v>27.60996537708866</v>
+        <v>36.86095384000533</v>
       </c>
       <c r="AO4">
-        <v>45.79633027522936</v>
+        <v>12.40533606977938</v>
       </c>
       <c r="AP4">
-        <v>25.96812883122226</v>
+        <v>34.56334510091254</v>
       </c>
       <c r="AQ4">
-        <v>-38.75621118012422</v>
+        <v>35.50367107195301</v>
       </c>
     </row>
   </sheetData>
